--- a/flexbackend.site/Public/ExcelSimple/20230710Report.xlsx
+++ b/flexbackend.site/Public/ExcelSimple/20230710Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Flex\flexbackend.site\Public\ExcelSimple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75669178-5426-42C0-9DC3-A8C16BABE651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A737D8-FBBC-4417-A787-E640579A109D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="2424" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="2" r:id="rId1"/>
@@ -1590,7 +1590,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1852,9 +1852,7 @@
       <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="1">
-        <v>600</v>
-      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1">
         <v>500</v>
       </c>
@@ -1896,9 +1894,7 @@
       <c r="H7" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="1">
-        <v>600</v>
-      </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1">
         <v>500</v>
       </c>
@@ -1940,9 +1936,7 @@
       <c r="H8" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="1">
-        <v>600</v>
-      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1">
         <v>500</v>
       </c>
